--- a/answers.xlsx
+++ b/answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo.Latendresse\Documents\code\uqam-django\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathe\Documents\code\uqam-django\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6911CB72-F9DA-4C1A-8554-306B72BF3077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDF92A5-E257-44E4-9D94-738167FE3338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="answers" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>qnumber</t>
   </si>
@@ -59,53 +59,107 @@
     <t>atext</t>
   </si>
   <si>
-    <t>q_to_skip</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Belgique</t>
-  </si>
-  <si>
     <t>Autre</t>
   </si>
   <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>[2,3,4,5]</t>
-  </si>
-  <si>
-    <t>Vrai</t>
-  </si>
-  <si>
-    <t>Faux</t>
-  </si>
-  <si>
-    <t>Allo</t>
-  </si>
-  <si>
-    <t>Bye</t>
-  </si>
-  <si>
     <t>[5]</t>
   </si>
   <si>
-    <t>[3,4,5]</t>
+    <t>Je suis à l'étranger.</t>
+  </si>
+  <si>
+    <t>Je suis au Canada</t>
+  </si>
+  <si>
+    <t>Non.</t>
+  </si>
+  <si>
+    <t>Oui.</t>
+  </si>
+  <si>
+    <t>q_to_ask</t>
+  </si>
+  <si>
+    <t>Je souhaite connaître les procédures d’immigration pour venir étudier à l’UQAM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je suis déjà inscrit à l’UQAM, je souhaite revenir sur le territoire canadien pour poursuivre mes études. </t>
+  </si>
+  <si>
+    <t>Je termine mon programme d’études de l’étranger et je souhaite revenir sur le territoire canadien pour obtenir le permis de travail post-diplôme.</t>
+  </si>
+  <si>
+    <t>J’aimerais connaître les modalités pour l’arrivée au Canada en contexte de pandémie</t>
+  </si>
+  <si>
+    <t>J’aimerais obtenir de l’aide dans ma recherche de logement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J’aimerais en savoir plus sur les assurances </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Étudiant </t>
+  </si>
+  <si>
+    <t>Visiteur</t>
+  </si>
+  <si>
+    <t>Permis de travail</t>
+  </si>
+  <si>
+    <t>Je veux renouveler mes documents d’immigration.</t>
+  </si>
+  <si>
+    <t>J’aimerais travailler hors campus et/ou sur le campus.</t>
+  </si>
+  <si>
+    <t>Je veux effectuer un stage dans le cadre de mon programme d'études.</t>
+  </si>
+  <si>
+    <t>J’aimerais en savoir plus sur le permis de travail post-diplôme.</t>
+  </si>
+  <si>
+    <t>Premier cycle (certificat, mineure, majeure baccaulauréat)</t>
+  </si>
+  <si>
+    <t>Deuxième et troisième cycle (DESS, maîtrise, doctorat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je suis en stage et/ou en rédaction de rapport de stage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je suis ou je serai en rédaction de thèse de doctorat </t>
+  </si>
+  <si>
+    <t>Je suis ou je serai en rédaction de mémoire, d'essaie ou de travail</t>
+  </si>
+  <si>
+    <t>Aucune de ces réponses, il ne me reste que des cours réguliers à compléter</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[8]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +293,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -582,52 +642,53 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -643,7 +704,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -938,14 +999,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -958,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -969,10 +1033,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,123 +1047,318 @@
         <v>1.2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
         <v>15</v>
       </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>5.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>4.2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>4.3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>5</v>
       </c>
-      <c r="B13">
+      <c r="B16">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
         <v>5.2</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>6.1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>6.2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>6.3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>6.4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>6.5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>7.1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>7.2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>8.1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>8.4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/answers.xlsx
+++ b/answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathe\Documents\code\uqam-django\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDF92A5-E257-44E4-9D94-738167FE3338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86003673-5C1C-4375-8090-2212C9CD6D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Je suis à l'étranger.</t>
   </si>
   <si>
-    <t>Je suis au Canada</t>
-  </si>
-  <si>
     <t>Non.</t>
   </si>
   <si>
@@ -89,21 +86,9 @@
     <t>Je termine mon programme d’études de l’étranger et je souhaite revenir sur le territoire canadien pour obtenir le permis de travail post-diplôme.</t>
   </si>
   <si>
-    <t>J’aimerais connaître les modalités pour l’arrivée au Canada en contexte de pandémie</t>
-  </si>
-  <si>
     <t>J’aimerais obtenir de l’aide dans ma recherche de logement.</t>
   </si>
   <si>
-    <t xml:space="preserve">J’aimerais en savoir plus sur les assurances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Étudiant </t>
-  </si>
-  <si>
-    <t>Visiteur</t>
-  </si>
-  <si>
     <t>Permis de travail</t>
   </si>
   <si>
@@ -125,18 +110,6 @@
     <t>Deuxième et troisième cycle (DESS, maîtrise, doctorat)</t>
   </si>
   <si>
-    <t xml:space="preserve">Je suis en stage et/ou en rédaction de rapport de stage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je suis ou je serai en rédaction de thèse de doctorat </t>
-  </si>
-  <si>
-    <t>Je suis ou je serai en rédaction de mémoire, d'essaie ou de travail</t>
-  </si>
-  <si>
-    <t>Aucune de ces réponses, il ne me reste que des cours réguliers à compléter</t>
-  </si>
-  <si>
     <t>[2]</t>
   </si>
   <si>
@@ -153,6 +126,33 @@
   </si>
   <si>
     <t>[8]</t>
+  </si>
+  <si>
+    <t>Je suis au Canada.</t>
+  </si>
+  <si>
+    <t>J’aimerais connaître les modalités pour l’arrivée au Canada en contexte de pandémie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J’aimerais en savoir plus sur les assurances. </t>
+  </si>
+  <si>
+    <t>Étudiant.</t>
+  </si>
+  <si>
+    <t>Visiteur.</t>
+  </si>
+  <si>
+    <t>Je suis ou je serai en rédaction de mémoire, d'essaie ou de travail.</t>
+  </si>
+  <si>
+    <t>Je suis en stage et/ou en rédaction de rapport de stage.</t>
+  </si>
+  <si>
+    <t>Je suis ou je serai en rédaction de thèse de doctorat.</t>
+  </si>
+  <si>
+    <t>Aucune de ces réponses, il ne me reste que des cours réguliers à compléter.</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,10 +1047,10 @@
         <v>1.2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,10 +1061,10 @@
         <v>2.1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1087,7 +1087,7 @@
         <v>3.1</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1099,7 +1099,7 @@
         <v>3.2</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1111,7 +1111,7 @@
         <v>3.3</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1123,7 +1123,7 @@
         <v>3.4</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1135,7 +1135,7 @@
         <v>3.5</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1147,7 +1147,7 @@
         <v>3.6</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1171,7 +1171,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
@@ -1185,7 +1185,7 @@
         <v>4.2</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1197,7 +1197,7 @@
         <v>4.3</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1209,10 +1209,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>5.2</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -1235,10 +1235,10 @@
         <v>6.1</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>6.2</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -1261,7 +1261,7 @@
         <v>6.3</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -1273,7 +1273,7 @@
         <v>6.4</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1297,7 +1297,7 @@
         <v>7.1</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -1309,10 +1309,10 @@
         <v>7.2</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
         <v>8.1</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -1335,7 +1335,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -1347,7 +1347,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>8.4</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
